--- a/CSC3510 S2021/Lectures/JS ChaiAndHTML_JS.xlsx
+++ b/CSC3510 S2021/Lectures/JS ChaiAndHTML_JS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dlash\github\CSC3510\S2021\Lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlash\Documents\GitHub\CSC3510\CSC3510 S2021\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F305F0-5A59-4916-A450-E0086E4207DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="23310" windowHeight="13740" activeTab="1" xr2:uid="{2C824C9A-1AED-4C73-BF57-25FF25872153}"/>
+    <workbookView xWindow="29616" yWindow="-120" windowWidth="23316" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Set up" sheetId="1" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2219,15 +2218,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>222885</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>591573</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>169025</xdr:rowOff>
+      <xdr:colOff>576333</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>31865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2250,8 +2249,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="847725" y="16459200"/>
-          <a:ext cx="7059048" cy="4160000"/>
+          <a:off x="832485" y="16676370"/>
+          <a:ext cx="7059048" cy="4203815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8479,10 +8478,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F733EA-14A4-4671-BFD6-F5953C8C626F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
       <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
@@ -8494,10 +8493,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898E3484-C6D9-483E-B280-58B97C67A7F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -8509,7 +8508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588E7268-767B-4BF5-95E1-A54D52D70163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="O42"/>
   <sheetViews>
     <sheetView topLeftCell="A125" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">

--- a/CSC3510 S2021/Lectures/JS ChaiAndHTML_JS.xlsx
+++ b/CSC3510 S2021/Lectures/JS ChaiAndHTML_JS.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29616" yWindow="-120" windowWidth="23316" windowHeight="13740"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="23310" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Set up" sheetId="1" r:id="rId1"/>
-    <sheet name="Example test " sheetId="2" r:id="rId2"/>
-    <sheet name="Mocha JS" sheetId="3" r:id="rId3"/>
+    <sheet name="Node.js npm install " sheetId="4" r:id="rId2"/>
+    <sheet name="Example test " sheetId="2" r:id="rId3"/>
+    <sheet name="Mocha JS" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,7 +93,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3659079" cy="264560"/>
+    <xdr:ext cx="6501460" cy="405432"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -106,8 +107,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="438150"/>
-          <a:ext cx="3659079" cy="264560"/>
+          <a:off x="1836964" y="457200"/>
+          <a:ext cx="6501460" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -140,7 +141,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="2000"/>
             <a:t>https://www.sitepoint.com/unit-test-javascript-mocha-chai/</a:t>
           </a:r>
         </a:p>
@@ -3379,28 +3380,79 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3031792" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="904875"/>
+          <a:ext cx="3031792" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>https://www.npmjs.com/get-npm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>118771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>572351</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>79664</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>94718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9422E1D7-9A57-495B-AA68-BF582FDDD196}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3413,8 +3465,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676275" y="381000"/>
-          <a:ext cx="8430476" cy="2775239"/>
+          <a:off x="1447800" y="1452271"/>
+          <a:ext cx="4695825" cy="3214447"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3425,26 +3477,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>145727</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>67913</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123123</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F86FDD-F098-45F9-BDBC-1C1F32EAA87A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3457,8 +3503,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1013460" y="3512820"/>
-          <a:ext cx="7666667" cy="5333333"/>
+          <a:off x="7267575" y="1296692"/>
+          <a:ext cx="5047548" cy="3208187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3470,25 +3516,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>465619</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>145741</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>208905</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09AF594-5938-4120-9005-C3482F12E7D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3501,20 +3541,455 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="9052560"/>
-          <a:ext cx="8847619" cy="7552381"/>
+          <a:off x="1143000" y="5010150"/>
+          <a:ext cx="5161905" cy="2847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>188836</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="8201024"/>
+          <a:ext cx="6789661" cy="4095109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2619050" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="9077325"/>
+          <a:ext cx="2619050" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Click</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> to download and install </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4743450" y="9372600"/>
+          <a:ext cx="3238500" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>572351</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>79664</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9422E1D7-9A57-495B-AA68-BF582FDDD196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="381000"/>
+          <a:ext cx="8430476" cy="2775239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>145727</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>67913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F86FDD-F098-45F9-BDBC-1C1F32EAA87A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1013460" y="3512820"/>
+          <a:ext cx="7666667" cy="5333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>465619</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>145741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09AF594-5938-4120-9005-C3482F12E7D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="9052560"/>
+          <a:ext cx="8847619" cy="7552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2848921" cy="1407308"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172575" y="447675"/>
+          <a:ext cx="2848921" cy="1407308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>let myList = [2, 4, 6,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> 8, 10];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>function getElementByIndex(  indx) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>    let item = myList[indx];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>return item;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1795620" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8829675" y="3019425"/>
+          <a:ext cx="1795620" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>describe(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> 'myList Test'</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5689,8 +6164,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5463540" y="17830800"/>
-          <a:ext cx="4220953" cy="1874285"/>
+          <a:off x="5497407" y="17830800"/>
+          <a:ext cx="4246776" cy="1870475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8481,11 +8956,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8496,11 +8971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8509,15 +8984,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O42" t="s">
         <v>0</v>
       </c>
